--- a/TestData/T1432_OpportunityToEngagementConversionMappingForFASJobTypes.xlsx
+++ b/TestData/T1432_OpportunityToEngagementConversionMappingForFASJobTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E73EA0-842E-41FD-9F1F-BE5E29322F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F66499-3367-4417-9F16-92C9847A2F15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -264,9 +264,6 @@
     <t>Drew Koecher</t>
   </si>
   <si>
-    <t>Blaise Brunda</t>
-  </si>
-  <si>
     <t>WomenLed</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>10000</t>
+  </si>
+  <si>
+    <t>Danielle Morello</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1164,7 +1164,7 @@
         <v>48</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -1247,13 +1247,13 @@
         <v>44</v>
       </c>
       <c r="AA2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AB2" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="AD2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -1336,10 +1336,10 @@
         <v>44</v>
       </c>
       <c r="AA3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB3" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="AD3" s="3" t="s">
         <v>9</v>
@@ -1425,13 +1425,13 @@
         <v>44</v>
       </c>
       <c r="AA4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AB4" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="AD4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -1514,10 +1514,10 @@
         <v>44</v>
       </c>
       <c r="AA5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="AD5" s="3" t="s">
         <v>9</v>
@@ -1603,13 +1603,13 @@
         <v>44</v>
       </c>
       <c r="AA6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AB6" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="AD6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1692,10 +1692,10 @@
         <v>44</v>
       </c>
       <c r="AA7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="AD7" s="3" t="s">
         <v>9</v>
@@ -1781,13 +1781,13 @@
         <v>44</v>
       </c>
       <c r="AA8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AB8" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="AD8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -1870,10 +1870,10 @@
         <v>44</v>
       </c>
       <c r="AA9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB9" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="AD9" s="3" t="s">
         <v>9</v>
@@ -1959,13 +1959,13 @@
         <v>44</v>
       </c>
       <c r="AA10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AB10" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="AD10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2001,7 +2001,7 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2013,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>

--- a/TestData/T1432_OpportunityToEngagementConversionMappingForFASJobTypes.xlsx
+++ b/TestData/T1432_OpportunityToEngagementConversionMappingForFASJobTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F66499-3367-4417-9F16-92C9847A2F15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA670D3-A1BD-420B-87AB-E4DEEF7ED73D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="84">
   <si>
     <t>Client</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>Danielle Morello</t>
+  </si>
+  <si>
+    <t>FA - Portfolio-Auto Struct Prd/Consulting</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -667,6 +670,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -708,7 +722,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -723,6 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1045,16 +1060,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -1968,6 +1983,95 @@
         <v>79</v>
       </c>
     </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2013,7 +2117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
@@ -2087,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,7 +2202,7 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2179,6 +2283,11 @@
         <v>72</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/TestData/T1432_OpportunityToEngagementConversionMappingForFASJobTypes.xlsx
+++ b/TestData/T1432_OpportunityToEngagementConversionMappingForFASJobTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA670D3-A1BD-420B-87AB-E4DEEF7ED73D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3BD45F-0E06-4E27-9BFD-A72299CB4050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="28800" windowHeight="14520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="84">
   <si>
     <t>Client</t>
   </si>
@@ -225,9 +225,6 @@
     <t>FA - Portfolio-Auto Struct Prd</t>
   </si>
   <si>
-    <t>FA - Portfolio-BDC/Direct Lending</t>
-  </si>
-  <si>
     <t>FA - Portfolio-Deriv/Risk Mgmt</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>FA - Portfolio-GP interest</t>
   </si>
   <si>
-    <t>FA - Portfolio LIBOR Advisory</t>
-  </si>
-  <si>
     <t>FA - Portfolio-Real Estate</t>
   </si>
   <si>
@@ -280,6 +274,12 @@
   </si>
   <si>
     <t>FA - Portfolio-Auto Struct Prd/Consulting</t>
+  </si>
+  <si>
+    <t>CVAS - Corporate Valuation Advisory Services</t>
+  </si>
+  <si>
+    <t>CVAS - IP Valuation</t>
   </si>
 </sst>
 </file>
@@ -722,11 +722,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -735,9 +733,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1060,1016 +1060,1109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="3"/>
-    <col min="15" max="17" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.85546875" style="3"/>
-    <col min="26" max="26" width="11.28515625" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="Z3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD4" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="3" t="s">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S5" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U5" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>74</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W6" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X6" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
         <v>75</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="O7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" t="s">
+        <v>72</v>
+      </c>
+      <c r="W7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z7" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AA7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" t="s">
+        <v>72</v>
+      </c>
+      <c r="W10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB11" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="AD11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="I12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="Z12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD12" t="s">
         <v>77</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2102,10 +2195,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2252,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
@@ -2191,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,10 +2295,10 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,72 +2312,187 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="9" t="s">
+      <c r="E2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="9" t="s">
+      <c r="E3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="10" t="s">
+      <c r="E4" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="9" t="s">
+      <c r="E5" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
+      <c r="E6" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="9" t="s">
+      <c r="E7" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="9" t="s">
+      <c r="E8" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="10" t="s">
+      <c r="E9" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
       <c r="D11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>83</v>
       </c>
     </row>

--- a/TestData/T1432_OpportunityToEngagementConversionMappingForFASJobTypes.xlsx
+++ b/TestData/T1432_OpportunityToEngagementConversionMappingForFASJobTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3BD45F-0E06-4E27-9BFD-A72299CB4050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1888341F-E970-495D-9AE9-8517E0D6F649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="28800" windowHeight="14520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="28950" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="86">
   <si>
     <t>Client</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>CVAS - IP Valuation</t>
+  </si>
+  <si>
+    <t>TAS - ESG Due Diligence &amp; Analytics</t>
+  </si>
+  <si>
+    <t>TAS - Due Diligence Services</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,6 +2171,95 @@
         <v>77</v>
       </c>
     </row>
+    <row r="13" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2211,7 +2306,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,16 +2379,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="5" width="38" bestFit="1" customWidth="1"/>
   </cols>
@@ -2496,6 +2591,17 @@
         <v>83</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/TestData/T1432_OpportunityToEngagementConversionMappingForFASJobTypes.xlsx
+++ b/TestData/T1432_OpportunityToEngagementConversionMappingForFASJobTypes.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1888341F-E970-495D-9AE9-8517E0D6F649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B35EFB-6C7C-4954-82CC-15FB3236F867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="28950" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="14625" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
     <sheet name="AddContact" sheetId="3" r:id="rId3"/>
     <sheet name="Engagement" sheetId="4" r:id="rId4"/>
+    <sheet name="OppDealTeamMembers" sheetId="5" r:id="rId5"/>
+    <sheet name="Roles" sheetId="6" r:id="rId6"/>
+    <sheet name="EngDealTeamMembers" sheetId="7" r:id="rId7"/>
+    <sheet name="OverlimitMessage" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="162">
   <si>
     <t>Client</t>
   </si>
@@ -286,6 +290,234 @@
   </si>
   <si>
     <t>TAS - Due Diligence Services</t>
+  </si>
+  <si>
+    <t>OppDealTeamMembers</t>
+  </si>
+  <si>
+    <t>Elaine Pan</t>
+  </si>
+  <si>
+    <t>Alex Dochter</t>
+  </si>
+  <si>
+    <t>Aaron Schultz</t>
+  </si>
+  <si>
+    <t>Alex Herrera</t>
+  </si>
+  <si>
+    <t>Ben Chiu</t>
+  </si>
+  <si>
+    <t>Alex Krakovsky</t>
+  </si>
+  <si>
+    <t>Blair Richardson</t>
+  </si>
+  <si>
+    <t>Alex Lerer</t>
+  </si>
+  <si>
+    <t>Conrad Kolasa</t>
+  </si>
+  <si>
+    <t>Alex Maffei</t>
+  </si>
+  <si>
+    <t>Dimitri Drone</t>
+  </si>
+  <si>
+    <t>Alex Orlean</t>
+  </si>
+  <si>
+    <t>Jason Vierig</t>
+  </si>
+  <si>
+    <t>Alex Raskin</t>
+  </si>
+  <si>
+    <t>Karim Jooma</t>
+  </si>
+  <si>
+    <t>Alex Shuleschenko</t>
+  </si>
+  <si>
+    <t>Kyle Poorman</t>
+  </si>
+  <si>
+    <t>Alex St. Pierre</t>
+  </si>
+  <si>
+    <t>Marshall Taylor</t>
+  </si>
+  <si>
+    <t>Alex Sullivan</t>
+  </si>
+  <si>
+    <t>Matt Kavney</t>
+  </si>
+  <si>
+    <t>Alfonso Garcia</t>
+  </si>
+  <si>
+    <t>Matt Sturgell</t>
+  </si>
+  <si>
+    <t>Ali Amin</t>
+  </si>
+  <si>
+    <t>Michael Chiu</t>
+  </si>
+  <si>
+    <t>Alicia Furio</t>
+  </si>
+  <si>
+    <t>Ozzie Ozdemir</t>
+  </si>
+  <si>
+    <t>Allen Plunk</t>
+  </si>
+  <si>
+    <t>Paul Birchwood</t>
+  </si>
+  <si>
+    <t>Prashant Kamath</t>
+  </si>
+  <si>
+    <t>Preston Wolf</t>
+  </si>
+  <si>
+    <t>Rich Bowman</t>
+  </si>
+  <si>
+    <t>Rittik Chakrabarti</t>
+  </si>
+  <si>
+    <t>Robert Zarnoch</t>
+  </si>
+  <si>
+    <t>Ryan Verola</t>
+  </si>
+  <si>
+    <t>Ryan Mahlan</t>
+  </si>
+  <si>
+    <t>Sid Chitnis</t>
+  </si>
+  <si>
+    <t>Susanna O'Brien</t>
+  </si>
+  <si>
+    <t>Zach Hamilton</t>
+  </si>
+  <si>
+    <t>Rebecca Hu</t>
+  </si>
+  <si>
+    <t>Timothy Kang</t>
+  </si>
+  <si>
+    <t>Abhinav Pal</t>
+  </si>
+  <si>
+    <t>Adam Dunayer</t>
+  </si>
+  <si>
+    <t>Adam Ishola</t>
+  </si>
+  <si>
+    <t>Adam Schor</t>
+  </si>
+  <si>
+    <t>Aditi Singh</t>
+  </si>
+  <si>
+    <t>Aditya Aiyer</t>
+  </si>
+  <si>
+    <t>Aditya Tyagi</t>
+  </si>
+  <si>
+    <t>Adnan Sura</t>
+  </si>
+  <si>
+    <t>Adriana Stacey</t>
+  </si>
+  <si>
+    <t>Afnan Ahmed</t>
+  </si>
+  <si>
+    <t>Ahmed Elbiltagui</t>
+  </si>
+  <si>
+    <t>Aidan Fitzgibbon</t>
+  </si>
+  <si>
+    <t>AJ Amankwaa</t>
+  </si>
+  <si>
+    <t>Ajay Arelli</t>
+  </si>
+  <si>
+    <t>Akshat Jamad</t>
+  </si>
+  <si>
+    <t>Alan Frederick Hall</t>
+  </si>
+  <si>
+    <t>Alberico Altieri</t>
+  </si>
+  <si>
+    <t>Alberto Alonso Basagoiti</t>
+  </si>
+  <si>
+    <t>Albert Sung</t>
+  </si>
+  <si>
+    <t>Alejandro Arturo Serrano Leo</t>
+  </si>
+  <si>
+    <t>Aleksandra Chadam</t>
+  </si>
+  <si>
+    <t>Alessandro Ciravegna</t>
+  </si>
+  <si>
+    <t>Alessandro Rossi</t>
+  </si>
+  <si>
+    <t>Alexander Garcia</t>
+  </si>
+  <si>
+    <t>Alex Cohen</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Associate</t>
+  </si>
+  <si>
+    <t>EngDealTeamMembers</t>
+  </si>
+  <si>
+    <t>Alexandra Lac</t>
+  </si>
+  <si>
+    <t>OverlimitMessage</t>
+  </si>
+  <si>
+    <t>MaxMembersLimit</t>
+  </si>
+  <si>
+    <t>Please remove and re-add the following deal team member(s) to the internal team and then add the desired role(s). Removing the deal team member will allow the Office Allocation field to re-populate.</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
 </sst>
 </file>
@@ -728,7 +960,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -743,6 +975,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1069,7 +1307,7 @@
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,7 +2619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2606,4 +2844,443 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DA57C4-D803-4E16-A059-212C616AE1B8}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EE9121-BBB9-4421-8C95-BC1328E8FCF3}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A542B58A-8F68-4C73-ADF2-4DDFB4347695}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E0EAD7-4DBF-4812-9764-28680A1CF20C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/T1432_OpportunityToEngagementConversionMappingForFASJobTypes.xlsx
+++ b/TestData/T1432_OpportunityToEngagementConversionMappingForFASJobTypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B35EFB-6C7C-4954-82CC-15FB3236F867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE23928-E9C7-488D-88B5-E84682822C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="14625" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -1306,42 +1306,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>74</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>74</v>
       </c>
@@ -2512,13 +2512,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -2547,17 +2547,17 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -2620,18 +2620,18 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="5" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>60</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>60</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>60</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>60</v>
       </c>
@@ -2854,19 +2854,19 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -2978,192 +2978,192 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>152</v>
       </c>
@@ -3181,9 +3181,9 @@
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -3220,19 +3220,19 @@
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -3246,17 +3246,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E0EAD7-4DBF-4812-9764-28680A1CF20C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>158</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>160</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>160</v>
       </c>
